--- a/user-data/depth-of-extreme-poverty/depth-of-extreme-poverty.xlsx
+++ b/user-data/depth-of-extreme-poverty/depth-of-extreme-poverty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
   <si>
     <t>id</t>
   </si>
@@ -1007,9 +1007,6 @@
   </si>
   <si>
     <t>Source: World Bank PovCalNet</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1394,32 +1391,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13">
@@ -1435,11 +1432,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/depth-of-extreme-poverty/depth-of-extreme-poverty.xlsx
+++ b/user-data/depth-of-extreme-poverty/depth-of-extreme-poverty.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1015,7 +1015,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/depth-of-extreme-poverty/depth-of-extreme-poverty.xlsx
+++ b/user-data/depth-of-extreme-poverty/depth-of-extreme-poverty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
   <si>
     <t>id</t>
   </si>
@@ -1021,7 +1021,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1434,6 +1437,11 @@
         <v>337</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>338</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/depth-of-extreme-poverty/depth-of-extreme-poverty.xlsx
+++ b/user-data/depth-of-extreme-poverty/depth-of-extreme-poverty.xlsx
@@ -61,7 +61,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -121,7 +121,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -154,82 +154,82 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -733,7 +733,7 @@
     <t>SH</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+    <t>Saint Helena, Ascension &amp; Tristan da Cunha</t>
   </si>
   <si>
     <t>KN</t>
@@ -751,7 +751,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -763,7 +763,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -901,7 +901,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -973,7 +973,7 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
+    <t>Wallis &amp; Futuna</t>
   </si>
   <si>
     <t>YE</t>
@@ -1030,7 +1030,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1775,7 @@
         <v>2011</v>
       </c>
       <c r="D23" t="n">
-        <v>13.78</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="24">
@@ -1789,7 +1789,7 @@
         <v>2011</v>
       </c>
       <c r="D24" t="n">
-        <v>1.43</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="25">
@@ -1803,7 +1803,7 @@
         <v>2011</v>
       </c>
       <c r="D25" t="n">
-        <v>6.18</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="26">
@@ -1817,7 +1817,7 @@
         <v>2011</v>
       </c>
       <c r="D26" t="n">
-        <v>2.64</v>
+        <v>26.86</v>
       </c>
     </row>
     <row r="27">
@@ -1831,7 +1831,7 @@
         <v>2011</v>
       </c>
       <c r="D27" t="n">
-        <v>26.86</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="28">
@@ -1845,7 +1845,7 @@
         <v>2011</v>
       </c>
       <c r="D28" t="n">
-        <v>14.18</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="29">
@@ -1859,7 +1859,7 @@
         <v>2011</v>
       </c>
       <c r="D29" t="n">
-        <v>0.38</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="30">
@@ -1873,7 +1873,7 @@
         <v>2011</v>
       </c>
       <c r="D30" t="n">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="31">
@@ -1887,7 +1887,7 @@
         <v>2011</v>
       </c>
       <c r="D31" t="n">
-        <v>2.02</v>
+        <v>22.11</v>
       </c>
     </row>
     <row r="32">
@@ -1901,7 +1901,7 @@
         <v>2011</v>
       </c>
       <c r="D32" t="n">
-        <v>22.11</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="33">
@@ -1915,7 +1915,7 @@
         <v>2011</v>
       </c>
       <c r="D33" t="n">
-        <v>11.47</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="34">
@@ -1929,7 +1929,7 @@
         <v>2011</v>
       </c>
       <c r="D34" t="n">
-        <v>1.56</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="35">
@@ -1943,7 +1943,7 @@
         <v>2011</v>
       </c>
       <c r="D35" t="n">
-        <v>0.56</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="36">
@@ -3988,7 +3988,7 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>13.78</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="24">
@@ -3999,7 +3999,7 @@
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>1.43</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="25">
@@ -4010,7 +4010,7 @@
         <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>6.18</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="26">
@@ -4021,7 +4021,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>2.64</v>
+        <v>26.86</v>
       </c>
     </row>
     <row r="27">
@@ -4032,7 +4032,7 @@
         <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>26.86</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="28">
@@ -4043,7 +4043,7 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>14.18</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="29">
@@ -4054,7 +4054,7 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>0.38</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="30">
@@ -4065,7 +4065,7 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="31">
@@ -4076,7 +4076,7 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>2.02</v>
+        <v>22.11</v>
       </c>
     </row>
     <row r="32">
@@ -4087,7 +4087,7 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>22.11</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="33">
@@ -4098,7 +4098,7 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>11.47</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="34">
@@ -4109,7 +4109,7 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>1.56</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="35">
@@ -4120,7 +4120,7 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>0.56</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="36">
